--- a/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A03-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.178951604739074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8090728893333892</v>
+        <v>0.8090728893333898</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.5514239557252318</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.404779017143837</v>
+        <v>-2.369854186753661</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.541426850496838</v>
+        <v>-2.421766683045232</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.628037658510442</v>
+        <v>-0.5923278300748575</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.060990010052283</v>
+        <v>-2.903598325737555</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.374594328917069</v>
+        <v>-3.170737382754999</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.849048007801268</v>
+        <v>-3.886061046893873</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.362814361995734</v>
+        <v>-2.104157545155336</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.500909181577402</v>
+        <v>-2.513546414251468</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.564983950055783</v>
+        <v>-1.639427516872471</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.005311017308628509</v>
+        <v>0.05632494652245579</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.02612064089793138</v>
+        <v>0.007629585192291951</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.532759877457772</v>
+        <v>2.582489158965054</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.815844646368549</v>
+        <v>1.95457560708064</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.460710246525305</v>
+        <v>1.586468705158399</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2508059528233397</v>
+        <v>0.3773024078139164</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3843770064644481</v>
+        <v>0.7603407908228255</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2672191639118525</v>
+        <v>0.3065579529340599</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.06262811358549</v>
+        <v>0.9069140336814481</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.6136321503949485</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4211140940070916</v>
+        <v>0.4211140940070919</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.09259900616595314</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8681655852838014</v>
+        <v>-0.8756530657812595</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8934713392110936</v>
+        <v>-0.8668631753457798</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2705220436283608</v>
+        <v>-0.2520736902069531</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.4343596753236522</v>
+        <v>-0.4017693269599871</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4756812236667463</v>
+        <v>-0.4510450412739268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5180949332631692</v>
+        <v>-0.495519837490948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4984992367201222</v>
+        <v>-0.4621480026649503</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5199601907277651</v>
+        <v>-0.5155738820330009</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3374162379067028</v>
+        <v>-0.3426509708904302</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2726066153750004</v>
+        <v>0.1244060845033566</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2782771500154328</v>
+        <v>0.3260448908604123</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.122032854237761</v>
+        <v>2.46772492983306</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3830080118588469</v>
+        <v>0.4353908424330271</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3236913547507685</v>
+        <v>0.3529601371635513</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07392914963921443</v>
+        <v>0.09003910782006681</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1146296035287642</v>
+        <v>0.2665236670194843</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.08481590538349913</v>
+        <v>0.115394263667796</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.331352804549367</v>
+        <v>0.3058069921884634</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.790497207632018</v>
+        <v>-2.724136872423021</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.784431120526076</v>
+        <v>-2.728525036984389</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.27141915125981</v>
+        <v>-2.199906462952324</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.084229344709261</v>
+        <v>-1.097499721333694</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.328752132623126</v>
+        <v>-4.218364429464787</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.772792811522855</v>
+        <v>-2.970212795930022</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.25841945904652</v>
+        <v>-1.427762131290442</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.955887317464861</v>
+        <v>-3.062858535462201</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-2.083100156594362</v>
+        <v>-2.016412052799125</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1000649213408884</v>
+        <v>-0.03719944554665363</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.05809376063279593</v>
+        <v>-0.01123505923214219</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3612553481366997</v>
+        <v>0.4169866666129609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.330472673519757</v>
+        <v>3.178413478462058</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.6066971703187132</v>
+        <v>-0.5731909314042034</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7219005744472736</v>
+        <v>0.7262079000826381</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.249441525753894</v>
+        <v>1.202367120672531</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.6698743078369547</v>
+        <v>-0.6884352739453031</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.108500531540598</v>
+        <v>0.123216667304843</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8046128700220593</v>
+        <v>-0.7906141904192461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7860891129411541</v>
+        <v>-0.7726104662267016</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6620340813019722</v>
+        <v>-0.6475118754178363</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1689753216503651</v>
+        <v>-0.1679686765906782</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6488326655217151</v>
+        <v>-0.635450376436866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4087616218008433</v>
+        <v>-0.4314964753586127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2764981901349741</v>
+        <v>-0.3025384210294472</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6370592252027435</v>
+        <v>-0.6373340808527398</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4273993674099776</v>
+        <v>-0.4306188512787844</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.01911780107723399</v>
+        <v>0.09330676876412787</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.01058994614983649</v>
+        <v>0.1181432826512334</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2337953618553322</v>
+        <v>0.2988605826908594</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7619969695053882</v>
+        <v>0.7328379677471041</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1161579271625182</v>
+        <v>-0.1011002830636588</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1707896244543772</v>
+        <v>0.1636120668163566</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.382939709982878</v>
+        <v>0.3763588959446865</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2010437354373156</v>
+        <v>-0.1956163828539691</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.04445338352917333</v>
+        <v>0.04371237206192466</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-0.8168745893762451</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1923787287931335</v>
+        <v>0.1923787287931342</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.532097097724227</v>
+        <v>-1.573157127818355</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.748929683895111</v>
+        <v>-1.685862370784996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.7679661323315741</v>
+        <v>-0.8873300331529734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.684040276508536</v>
+        <v>-1.803281989757948</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.69847747458039</v>
+        <v>-3.701252640131134</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.551245150363285</v>
+        <v>-2.909003007209685</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.279624724243181</v>
+        <v>-1.110645780155515</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.203329881532516</v>
+        <v>-2.242390482887644</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.310660759354366</v>
+        <v>-1.108421647813699</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.732222252436146</v>
+        <v>1.774915251163176</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.158083101666903</v>
+        <v>1.327493641615442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.549420011198452</v>
+        <v>2.682574015237887</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.110888602803933</v>
+        <v>3.083069725945328</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7772442685141194</v>
+        <v>0.5743169044610971</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.525513953453147</v>
+        <v>1.528818732353296</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.806173153600715</v>
+        <v>1.820742851355011</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7790014539203836</v>
+        <v>0.5398939509911781</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.591984208475477</v>
+        <v>1.601868249781158</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.229844313818756</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.05412967607003906</v>
+        <v>0.05412967607003925</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6461585032756771</v>
+        <v>-0.6666527461544088</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6833165320661566</v>
+        <v>-0.638318845181412</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3351579359558574</v>
+        <v>-0.3773797232424325</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2809167854659791</v>
+        <v>-0.2817354049598149</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5589893991510442</v>
+        <v>-0.5609962240065857</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3961947949981157</v>
+        <v>-0.4198557121209266</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2824947431491107</v>
+        <v>-0.2575104003700706</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.504828468849828</v>
+        <v>-0.5081396444058761</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2874815289167217</v>
+        <v>-0.2633139947970652</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.867059664135833</v>
+        <v>1.936549521384913</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.261048258696055</v>
+        <v>1.635011657004046</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.528213870369079</v>
+        <v>2.953515233682188</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7144316059058614</v>
+        <v>0.6972365626588062</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2059418109058214</v>
+        <v>0.1562608763174428</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3610279065424591</v>
+        <v>0.379235098873795</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6586004718709813</v>
+        <v>0.6571915151255356</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2969397476437809</v>
+        <v>0.2266057804745108</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5659460063459127</v>
+        <v>0.5711571286597013</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.4596337124940335</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.079766948709975</v>
+        <v>1.079766948709976</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.343984856141526</v>
+        <v>-2.21363874982691</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.338680833594389</v>
+        <v>-2.319665254608304</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.957502424853761</v>
+        <v>-1.831691291305958</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6583188688786442</v>
+        <v>-0.8305192651511608</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.646908187497814</v>
+        <v>-1.848185368343912</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6909682735142015</v>
+        <v>0.7989094520206259</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9238427260185686</v>
+        <v>-1.001213973483418</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.634128862123229</v>
+        <v>-1.59618815998137</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.09119184008903758</v>
+        <v>0.02900248909926252</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2839528004249667</v>
+        <v>0.2970057549240859</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06852462707543185</v>
+        <v>0.04241683548867715</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7029124782330798</v>
+        <v>0.7549385792428249</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.164233551579938</v>
+        <v>3.20455224227686</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.047752940830375</v>
+        <v>2.025548785450673</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.375381201860535</v>
+        <v>4.288921364100543</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.413859357115331</v>
+        <v>1.33187732219445</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.6215478913655846</v>
+        <v>0.7513869219420919</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.297518773565403</v>
+        <v>2.214037220960027</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1240160190161342</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2913371991745442</v>
+        <v>0.2913371991745445</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6825222921230338</v>
+        <v>-0.6778505959915481</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7019277668713447</v>
+        <v>-0.7070057529849222</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5634491948059017</v>
+        <v>-0.5639057242269745</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1225270266613736</v>
+        <v>-0.1631966821441109</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3005643208210088</v>
+        <v>-0.3375746304642244</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1051805759103284</v>
+        <v>0.127580090931903</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2203992841357236</v>
+        <v>-0.2450129993406996</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3844285948576396</v>
+        <v>-0.3751128379042697</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.02461164197970729</v>
+        <v>0.0002724827959189561</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1647615259931828</v>
+        <v>0.2214874302968615</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07221926361848045</v>
+        <v>0.06907998360806408</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.3745101741502835</v>
+        <v>0.4216263530119383</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.886498108062954</v>
+        <v>0.846522960190962</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5453581416299352</v>
+        <v>0.5825203058100674</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.147167418076352</v>
+        <v>1.118552176218438</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4591648949309625</v>
+        <v>0.4366550913774188</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1990126147017139</v>
+        <v>0.2473412206679343</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7430598242970314</v>
+        <v>0.7135914641185013</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.9601946716299704</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.05545402575875789</v>
+        <v>-0.05545402575875824</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.6934189244949395</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.596642085404755</v>
+        <v>-1.587630736586568</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.57370432025643</v>
+        <v>-1.641553052448052</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.7836157292027517</v>
+        <v>-0.7984843109528376</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.3396462238890913</v>
+        <v>-0.4229436969414897</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.085694515694662</v>
+        <v>-2.149825294327105</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.9490136649234432</v>
+        <v>-0.8631537719221427</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.7636503376358741</v>
+        <v>-0.8006937287196645</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.641993522204265</v>
+        <v>-1.661553559218296</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.5743500045751919</v>
+        <v>-0.5877032656718389</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.2469060596698779</v>
+        <v>-0.2302014625329176</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.2857831067373704</v>
+        <v>-0.3853561461672795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6818873241261516</v>
+        <v>0.6465489918402922</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.874208215814856</v>
+        <v>1.896258492078192</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.103247402285508</v>
+        <v>-0.1547398466311844</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1.034959236015292</v>
+        <v>0.9838472285722174</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5896776872375022</v>
+        <v>0.5506529124734822</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.3669212344535682</v>
+        <v>-0.4394482724118588</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6690626322589611</v>
+        <v>0.6859590216837624</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4292110438219654</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.02478818200442899</v>
+        <v>-0.02478818200442914</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1304052364895432</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6124421739050109</v>
+        <v>-0.6148130765842882</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.6038146140977488</v>
+        <v>-0.6242240141536258</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2948761741586014</v>
+        <v>-0.2953366617793435</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.05833370006228147</v>
+        <v>-0.06883050534809793</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3637264977768176</v>
+        <v>-0.3701347699345516</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1588346666663613</v>
+        <v>-0.1501695700873353</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1829022440104959</v>
+        <v>-0.1913306360962364</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3999045495286468</v>
+        <v>-0.3994901764190107</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.1410211468537873</v>
+        <v>-0.1438544958147079</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.14181946804576</v>
+        <v>-0.1197920947583093</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1497630930993492</v>
+        <v>-0.2002426563937686</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3701235927606707</v>
+        <v>0.3474692536449964</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3819594010299929</v>
+        <v>0.3940254708318811</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.02135199675573115</v>
+        <v>-0.03128346930199972</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2258966071013844</v>
+        <v>0.2110093645103346</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1728021421058856</v>
+        <v>0.1616946152202693</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1043789711885148</v>
+        <v>-0.1234224600185681</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2065935160007157</v>
+        <v>0.1984043378460677</v>
       </c>
     </row>
     <row r="34">
